--- a/data/financial_time_series_data/financial_time_series_calibrations/coffee-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/coffee-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.14972786055093568, -0.04415492273241662, 0.0009662612215151185, -0.030944553166090707, -0.040943670894978954, 0.1412589302918169, 0.28528686545182336, 0.14563304500915772, -0.0631672013487196, -0.024044140765320042, -0.03119380771567881, -0.056257310939128176, 0.12848088964105359, 0.28585663365154634, 0.09528724559701804, -0.05358760087002149, -0.04687610456612523, -0.04047555426666085, -0.06860976474910684]</t>
+    <t>[1.0, 0.15021283303220878, -0.044774089363924324, 0.004133520297264346, -0.029385722600000934, -0.04162578194294981, 0.13414897773629786, 0.2798238268943356, 0.14356536574540466, -0.06548117507535693, -0.02232570854942809, -0.029808798604038036, -0.05742458783116447, 0.12036293402667449, 0.2784813569886377, 0.08549830868653784, -0.05578375981896078, -0.05009904974230347, -0.036525588859309774, -0.06925130190606413]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.14613125777637287, -0.039486963568784526, 0.004521675873399327, -0.02707178504151291, -0.03788434436203105, 0.14017510079564816, 0.2778376587034649, 0.14437620219647593, -0.0584675595365691, -0.01998631367510322, -0.026930653836475433, -0.051487484108415846, 0.1272245635457431, 0.2790305678553474, 0.09238020012227396, -0.04930088178482296, -0.0448933825800163, -0.03802305876274631, -0.06413476336464809]</t>
+    <t>[1.0, 0.1446862337135457, -0.040765671922998147, 0.00728610145484793, -0.02568754351490599, -0.039418961063793743, 0.13216065103263858, 0.2703274004515764, 0.14187870835122554, -0.06025347195698553, -0.017855259726688735, -0.024896648033404, -0.05138063414805476, 0.11828746832514847, 0.26997067575452904, 0.08107449525087163, -0.0510528589480201, -0.047995137084212, -0.033935097459040345, -0.06362131275203785]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1349</v>
+        <v>1751</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.1458682256149341</v>
+        <v>-0.07776438606882616</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.004274657799904361</v>
+        <v>0.01429109734191718</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>591.6082330581754</v>
+        <v>672.8525460485779</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9407407407407408</v>
+        <v>0.9103699843668578</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-1.300070168473521</v>
+        <v>-1.470588062475888</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.06909160758583491</v>
+        <v>-0.06205060960652477</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>581.1261898492172</v>
+        <v>681.2677249578644</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.9033016195215622</v>
+        <v>1.375371575639423</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.06715249279225555</v>
+        <v>-0.08574817672285553</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>600.8476745695534</v>
+        <v>664.0970834904706</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/coffee-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/coffee-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.15021283303220878, -0.044774089363924324, 0.004133520297264346, -0.029385722600000934, -0.04162578194294981, 0.13414897773629786, 0.2798238268943356, 0.14356536574540466, -0.06548117507535693, -0.02232570854942809, -0.029808798604038036, -0.05742458783116447, 0.12036293402667449, 0.2784813569886377, 0.08549830868653784, -0.05578375981896078, -0.05009904974230347, -0.036525588859309774, -0.06925130190606413]</t>
+    <t>[1.0, 0.14886215180326035, -0.043009959636977374, 0.006215959023565756, -0.028127828499673893, -0.04054390239736608, 0.1329358357615791, 0.27599967751444077, 0.1427044024429345, -0.06412641861550496, -0.020443457737528734, -0.027662016444807588, -0.05549570559559791, 0.11930897533608907, 0.2749404621355852, 0.08374098238725364, -0.053960147948551376, -0.04874449049568199, -0.034707429109932866, -0.06734962307929077]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.1446862337135457, -0.040765671922998147, 0.00728610145484793, -0.02568754351490599, -0.039418961063793743, 0.13216065103263858, 0.2703274004515764, 0.14187870835122554, -0.06025347195698553, -0.017855259726688735, -0.024896648033404, -0.05138063414805476, 0.11828746832514847, 0.26997067575452904, 0.08107449525087163, -0.0510528589480201, -0.047995137084212, -0.033935097459040345, -0.06362131275203785]</t>
+    <t>[0.9999999999999998, 0.1461978636743438, -0.04118320354161974, 0.007998324951721817, -0.02525472064084424, -0.038623382583016765, 0.13162411367239918, 0.2712840900736729, 0.14135699678666036, -0.061327135975747606, -0.01823206566815425, -0.025864979328781255, -0.052271568652723636, 0.11814601044592526, 0.27027080033512796, 0.0808819401185827, -0.05144084731236063, -0.04727984550510143, -0.03328816437210092, -0.06390755341779279]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.07776438606882616</v>
+        <v>-0.08240671282437537</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.01429109734191718</v>
+        <v>1.011442406952637</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>672.8525460485779</v>
+        <v>672.6095867142686</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-1.470588062475888</v>
+        <v>-0.8496618998130007</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.06205060960652477</v>
+        <v>0.1091323069010495</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>681.2677249578644</v>
+        <v>681.551525894158</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>1.375371575639423</v>
+        <v>1.215012248388281</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.08574817672285553</v>
+        <v>-1.367955328586101</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>664.0970834904706</v>
+        <v>664.36363089392</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/coffee-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/coffee-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.14933001998666806, -0.042883514816334053, 0.0023478082178637898, -0.03002790646955227, -0.04003624921346693, 0.1407230086491277, 0.2833827124500753, 0.1453183212013734, -0.062348207439580874, -0.02294746712131662, -0.0300148500885594, -0.05510745758671261, 0.1279739474762553, 0.28409904449269274, 0.09465017321039226, -0.05240106709759123, -0.046192268532905416, -0.03933278432042323, -0.06734968642892095]</t>
+    <t>[1.0, 0.14972786055093568, -0.04415492273241662, 0.0009662612215151185, -0.030944553166090707, -0.040943670894978954, 0.1412589302918169, 0.28528686545182336, 0.14563304500915772, -0.0631672013487196, -0.024044140765320042, -0.03119380771567881, -0.056257310939128176, 0.12848088964105359, 0.28585663365154634, 0.09528724559701804, -0.05358760087002149, -0.04687610456612523, -0.04047555426666085, -0.06860976474910684]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.14705076528786784, -0.04061465579166452, 0.004378835010485733, -0.02727405924233491, -0.038077818022369814, 0.13961359906234705, 0.2787634246891614, 0.143812612253126, -0.05976961228425221, -0.02073711058052979, -0.027804559118773952, -0.05235782694114129, 0.12689926577119098, 0.27957142887575287, 0.0919636745144771, -0.05000377517804322, -0.04473819452451189, -0.03782675432735449, -0.06454516905496592]</t>
+    <t>[1.0, 0.14613125777637287, -0.039486963568784526, 0.004521675873399327, -0.02707178504151291, -0.03788434436203105, 0.14017510079564816, 0.2778376587034649, 0.14437620219647593, -0.0584675595365691, -0.01998631367510322, -0.026930653836475433, -0.051487484108415846, 0.1272245635457431, 0.2790305678553474, 0.09238020012227396, -0.04930088178482296, -0.0448933825800163, -0.03802305876274631, -0.06413476336464809]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.1426531907251573</v>
+        <v>-0.1458682256149341</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.6034736502139041</v>
+        <v>0.004274657799904361</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>591.5161064487439</v>
+        <v>591.6082330581754</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.8428172644509456</v>
+        <v>-1.300070168473521</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.2952549376194296</v>
+        <v>-0.06909160758583491</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>581.4210774975129</v>
+        <v>581.1261898492172</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.8854793879952259</v>
+        <v>0.9033016195215622</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-1.267996895671522</v>
+        <v>-0.06715249279225555</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>600.9429029596347</v>
+        <v>600.8476745695534</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/coffee-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/coffee-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.14972786055093568, -0.04415492273241662, 0.0009662612215151185, -0.030944553166090707, -0.040943670894978954, 0.1412589302918169, 0.28528686545182336, 0.14563304500915772, -0.0631672013487196, -0.024044140765320042, -0.03119380771567881, -0.056257310939128176, 0.12848088964105359, 0.28585663365154634, 0.09528724559701804, -0.05358760087002149, -0.04687610456612523, -0.04047555426666085, -0.06860976474910684]</t>
+    <t>[1.0, 0.14972786055093562, -0.04415492273241662, 0.0009662612215151176, -0.03094455316609068, -0.04094367089497897, 0.14125893029181683, 0.2852868654518235, 0.14563304500915775, -0.0631672013487196, -0.024044140765320035, -0.031193807715678815, -0.056257310939128155, 0.12848088964105367, 0.2858566336515462, 0.09528724559701802, -0.05358760087002152, -0.046876104566125225, -0.04047555426666086, -0.06860976474910684]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.14613125777637287, -0.039486963568784526, 0.004521675873399327, -0.02707178504151291, -0.03788434436203105, 0.14017510079564816, 0.2778376587034649, 0.14437620219647593, -0.0584675595365691, -0.01998631367510322, -0.026930653836475433, -0.051487484108415846, 0.1272245635457431, 0.2790305678553474, 0.09238020012227396, -0.04930088178482296, -0.0448933825800163, -0.03802305876274631, -0.06413476336464809]</t>
+    <t>[1.0, 0.14613125777637292, -0.03948696356878453, 0.0045216758733993175, -0.02707178504151291, -0.03788434436203103, 0.1401751007956482, 0.27783765870346505, 0.14437620219647604, -0.05846755953656906, -0.019986313675103208, -0.026930653836475398, -0.051487484108415804, 0.12722456354574316, 0.27903056785534736, 0.09238020012227402, -0.04930088178482295, -0.044893382580016315, -0.0380230587627463, -0.06413476336464806]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.1458682256149341</v>
+        <v>-0.1458682256149343</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.004274657799904361</v>
+        <v>0.004274657799904247</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9407407407407408</v>
+        <v>0.4847328244274809</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.06909160758583491</v>
+        <v>-0.06909160758583487</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>581.1261898492172</v>
+        <v>581.1261898492171</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.9033016195215622</v>
+        <v>0.9033016195215626</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.06715249279225555</v>
+        <v>-0.06715249279225573</v>
       </c>
     </row>
     <row r="9" spans="1:2">
